--- a/natmiOut/OldD4/LR-pairs_lrc2p/Ntn1-Neo1.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Ntn1-Neo1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.83562646199738</v>
+        <v>1.912301666666667</v>
       </c>
       <c r="H2">
-        <v>1.83562646199738</v>
+        <v>5.736905</v>
       </c>
       <c r="I2">
-        <v>0.1425574693117277</v>
+        <v>0.1465770754282357</v>
       </c>
       <c r="J2">
-        <v>0.1425574693117277</v>
+        <v>0.1717732502851657</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.82183324110304</v>
+        <v>3.987923333333333</v>
       </c>
       <c r="N2">
-        <v>3.82183324110304</v>
+        <v>11.96377</v>
       </c>
       <c r="O2">
-        <v>0.05626203830071427</v>
+        <v>0.05644583114423032</v>
       </c>
       <c r="P2">
-        <v>0.05626203830071427</v>
+        <v>0.05986064110798311</v>
       </c>
       <c r="Q2">
-        <v>7.015458230709953</v>
+        <v>7.626112436872223</v>
       </c>
       <c r="R2">
-        <v>7.015458230709953</v>
+        <v>68.63501193185</v>
       </c>
       <c r="S2">
-        <v>0.008020573798469322</v>
+        <v>0.008273664849237302</v>
       </c>
       <c r="T2">
-        <v>0.008020573798469322</v>
+        <v>0.01028245688727206</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.83562646199738</v>
+        <v>1.912301666666667</v>
       </c>
       <c r="H3">
-        <v>1.83562646199738</v>
+        <v>5.736905</v>
       </c>
       <c r="I3">
-        <v>0.1425574693117277</v>
+        <v>0.1465770754282357</v>
       </c>
       <c r="J3">
-        <v>0.1425574693117277</v>
+        <v>0.1717732502851657</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>51.817923265941</v>
+        <v>54.09996900000001</v>
       </c>
       <c r="N3">
-        <v>51.817923265941</v>
+        <v>162.299907</v>
       </c>
       <c r="O3">
-        <v>0.7628229175719926</v>
+        <v>0.7657413294677419</v>
       </c>
       <c r="P3">
-        <v>0.7628229175719926</v>
+        <v>0.812066471086124</v>
       </c>
       <c r="Q3">
-        <v>95.118351152711</v>
+        <v>103.455460885315</v>
       </c>
       <c r="R3">
-        <v>95.118351152711</v>
+        <v>931.0991479678352</v>
       </c>
       <c r="S3">
-        <v>0.1087461046620519</v>
+        <v>0.1122401246079107</v>
       </c>
       <c r="T3">
-        <v>0.1087461046620519</v>
+        <v>0.139491297186068</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.83562646199738</v>
+        <v>1.912301666666667</v>
       </c>
       <c r="H4">
-        <v>1.83562646199738</v>
+        <v>5.736905</v>
       </c>
       <c r="I4">
-        <v>0.1425574693117277</v>
+        <v>0.1465770754282357</v>
       </c>
       <c r="J4">
-        <v>0.1425574693117277</v>
+        <v>0.1717732502851657</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.253021148032491</v>
+        <v>0.25851</v>
       </c>
       <c r="N4">
-        <v>0.253021148032491</v>
+        <v>0.7755299999999999</v>
       </c>
       <c r="O4">
-        <v>0.003724779346308193</v>
+        <v>0.003659000083358752</v>
       </c>
       <c r="P4">
-        <v>0.003724779346308193</v>
+        <v>0.003880359033855895</v>
       </c>
       <c r="Q4">
-        <v>0.4644523147733968</v>
+        <v>0.49434910385</v>
       </c>
       <c r="R4">
-        <v>0.4644523147733968</v>
+        <v>4.44914193465</v>
       </c>
       <c r="S4">
-        <v>0.0005309951173542872</v>
+        <v>0.0005363255312103963</v>
       </c>
       <c r="T4">
-        <v>0.0005309951173542872</v>
+        <v>0.0006665418835188323</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,60 +717,60 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.83562646199738</v>
+        <v>1.912301666666667</v>
       </c>
       <c r="H5">
-        <v>1.83562646199738</v>
+        <v>5.736905</v>
       </c>
       <c r="I5">
-        <v>0.1425574693117277</v>
+        <v>0.1465770754282357</v>
       </c>
       <c r="J5">
-        <v>0.1425574693117277</v>
+        <v>0.1717732502851657</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>12.0363866008605</v>
+        <v>0.213071</v>
       </c>
       <c r="N5">
-        <v>12.0363866008605</v>
+        <v>0.639213</v>
       </c>
       <c r="O5">
-        <v>0.1771902647809849</v>
+        <v>0.003015847768988947</v>
       </c>
       <c r="P5">
-        <v>0.1771902647809849</v>
+        <v>0.003198297859667748</v>
       </c>
       <c r="Q5">
-        <v>22.09430975137023</v>
+        <v>0.4074560284183334</v>
       </c>
       <c r="R5">
-        <v>22.09430975137023</v>
+        <v>3.667104255765</v>
       </c>
       <c r="S5">
-        <v>0.02525979573385216</v>
+        <v>0.0004420541459151692</v>
       </c>
       <c r="T5">
-        <v>0.02525979573385216</v>
+        <v>0.0005493820187352179</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,55 +779,55 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>4.69574730063551</v>
+        <v>1.912301666666667</v>
       </c>
       <c r="H6">
-        <v>4.69574730063551</v>
+        <v>5.736905</v>
       </c>
       <c r="I6">
-        <v>0.3646786890278171</v>
+        <v>0.1465770754282357</v>
       </c>
       <c r="J6">
-        <v>0.3646786890278171</v>
+        <v>0.1717732502851657</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.82183324110304</v>
+        <v>12.090976</v>
       </c>
       <c r="N6">
-        <v>3.82183324110304</v>
+        <v>24.181952</v>
       </c>
       <c r="O6">
-        <v>0.05626203830071427</v>
+        <v>0.1711379915356802</v>
       </c>
       <c r="P6">
-        <v>0.05626203830071427</v>
+        <v>0.1209942309123691</v>
       </c>
       <c r="Q6">
-        <v>17.94636312538866</v>
+        <v>23.12159355642667</v>
       </c>
       <c r="R6">
-        <v>17.94636312538866</v>
+        <v>138.72956133856</v>
       </c>
       <c r="S6">
-        <v>0.02051756636953731</v>
+        <v>0.02508490629396215</v>
       </c>
       <c r="T6">
-        <v>0.02051756636953731</v>
+        <v>0.02078357230957152</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,55 +841,55 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>4.69574730063551</v>
+        <v>4.724098666666666</v>
       </c>
       <c r="H7">
-        <v>4.69574730063551</v>
+        <v>14.172296</v>
       </c>
       <c r="I7">
-        <v>0.3646786890278171</v>
+        <v>0.3621000695990751</v>
       </c>
       <c r="J7">
-        <v>0.3646786890278171</v>
+        <v>0.4243440231141098</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>51.817923265941</v>
+        <v>3.987923333333333</v>
       </c>
       <c r="N7">
-        <v>51.817923265941</v>
+        <v>11.96377</v>
       </c>
       <c r="O7">
-        <v>0.7628229175719926</v>
+        <v>0.05644583114423032</v>
       </c>
       <c r="P7">
-        <v>0.7628229175719926</v>
+        <v>0.05986064110798311</v>
       </c>
       <c r="Q7">
-        <v>243.3238733005804</v>
+        <v>18.83934330176889</v>
       </c>
       <c r="R7">
-        <v>243.3238733005804</v>
+        <v>169.55408971592</v>
       </c>
       <c r="S7">
-        <v>0.2781852615405289</v>
+        <v>0.02043903938590344</v>
       </c>
       <c r="T7">
-        <v>0.2781852615405289</v>
+        <v>0.02540150527395142</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,55 +903,55 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>4.69574730063551</v>
+        <v>4.724098666666666</v>
       </c>
       <c r="H8">
-        <v>4.69574730063551</v>
+        <v>14.172296</v>
       </c>
       <c r="I8">
-        <v>0.3646786890278171</v>
+        <v>0.3621000695990751</v>
       </c>
       <c r="J8">
-        <v>0.3646786890278171</v>
+        <v>0.4243440231141098</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.253021148032491</v>
+        <v>54.09996900000001</v>
       </c>
       <c r="N8">
-        <v>0.253021148032491</v>
+        <v>162.299907</v>
       </c>
       <c r="O8">
-        <v>0.003724779346308193</v>
+        <v>0.7657413294677419</v>
       </c>
       <c r="P8">
-        <v>0.003724779346308193</v>
+        <v>0.812066471086124</v>
       </c>
       <c r="Q8">
-        <v>1.188123372877267</v>
+        <v>255.573591419608</v>
       </c>
       <c r="R8">
-        <v>1.188123372877267</v>
+        <v>2300.162322776472</v>
       </c>
       <c r="S8">
-        <v>0.001358347648929561</v>
+        <v>0.2772749886951577</v>
       </c>
       <c r="T8">
-        <v>0.001358347648929561</v>
+        <v>0.3445955533767638</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,60 +965,60 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>4.69574730063551</v>
+        <v>4.724098666666666</v>
       </c>
       <c r="H9">
-        <v>4.69574730063551</v>
+        <v>14.172296</v>
       </c>
       <c r="I9">
-        <v>0.3646786890278171</v>
+        <v>0.3621000695990751</v>
       </c>
       <c r="J9">
-        <v>0.3646786890278171</v>
+        <v>0.4243440231141098</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>12.0363866008605</v>
+        <v>0.25851</v>
       </c>
       <c r="N9">
-        <v>12.0363866008605</v>
+        <v>0.7755299999999999</v>
       </c>
       <c r="O9">
-        <v>0.1771902647809849</v>
+        <v>0.003659000083358752</v>
       </c>
       <c r="P9">
-        <v>0.1771902647809849</v>
+        <v>0.003880359033855895</v>
       </c>
       <c r="Q9">
-        <v>56.51982989039611</v>
+        <v>1.22122674632</v>
       </c>
       <c r="R9">
-        <v>56.51982989039611</v>
+        <v>10.99104071688</v>
       </c>
       <c r="S9">
-        <v>0.06461751346882137</v>
+        <v>0.001324924184847226</v>
       </c>
       <c r="T9">
-        <v>0.06461751346882137</v>
+        <v>0.001646607163553591</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,60 +1027,60 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.287535631195055</v>
+        <v>4.724098666666666</v>
       </c>
       <c r="H10">
-        <v>0.287535631195055</v>
+        <v>14.172296</v>
       </c>
       <c r="I10">
-        <v>0.02233044291348628</v>
+        <v>0.3621000695990751</v>
       </c>
       <c r="J10">
-        <v>0.02233044291348628</v>
+        <v>0.4243440231141098</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>3.82183324110304</v>
+        <v>0.213071</v>
       </c>
       <c r="N10">
-        <v>3.82183324110304</v>
+        <v>0.639213</v>
       </c>
       <c r="O10">
-        <v>0.05626203830071427</v>
+        <v>0.003015847768988947</v>
       </c>
       <c r="P10">
-        <v>0.05626203830071427</v>
+        <v>0.003198297859667748</v>
       </c>
       <c r="Q10">
-        <v>1.098913233302805</v>
+        <v>1.006568427005333</v>
       </c>
       <c r="R10">
-        <v>1.098913233302805</v>
+        <v>9.059115843048</v>
       </c>
       <c r="S10">
-        <v>0.001256356234470479</v>
+        <v>0.001092038687051113</v>
       </c>
       <c r="T10">
-        <v>0.001256356234470479</v>
+        <v>0.001357178580888659</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,55 +1089,55 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.287535631195055</v>
+        <v>4.724098666666666</v>
       </c>
       <c r="H11">
-        <v>0.287535631195055</v>
+        <v>14.172296</v>
       </c>
       <c r="I11">
-        <v>0.02233044291348628</v>
+        <v>0.3621000695990751</v>
       </c>
       <c r="J11">
-        <v>0.02233044291348628</v>
+        <v>0.4243440231141098</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>51.817923265941</v>
+        <v>12.090976</v>
       </c>
       <c r="N11">
-        <v>51.817923265941</v>
+        <v>24.181952</v>
       </c>
       <c r="O11">
-        <v>0.7628229175719926</v>
+        <v>0.1711379915356802</v>
       </c>
       <c r="P11">
-        <v>0.7628229175719926</v>
+        <v>0.1209942309123691</v>
       </c>
       <c r="Q11">
-        <v>14.89949927348927</v>
+        <v>57.11896360029867</v>
       </c>
       <c r="R11">
-        <v>14.89949927348927</v>
+        <v>342.713781601792</v>
       </c>
       <c r="S11">
-        <v>0.01703417361394043</v>
+        <v>0.06196907864611572</v>
       </c>
       <c r="T11">
-        <v>0.01703417361394043</v>
+        <v>0.05134317871895232</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,55 +1151,55 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.287535631195055</v>
+        <v>0.3397296666666667</v>
       </c>
       <c r="H12">
-        <v>0.287535631195055</v>
+        <v>1.019189</v>
       </c>
       <c r="I12">
-        <v>0.02233044291348628</v>
+        <v>0.02604012841917865</v>
       </c>
       <c r="J12">
-        <v>0.02233044291348628</v>
+        <v>0.03051635109608539</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.253021148032491</v>
+        <v>3.987923333333333</v>
       </c>
       <c r="N12">
-        <v>0.253021148032491</v>
+        <v>11.96377</v>
       </c>
       <c r="O12">
-        <v>0.003724779346308193</v>
+        <v>0.05644583114423032</v>
       </c>
       <c r="P12">
-        <v>0.003724779346308193</v>
+        <v>0.05986064110798311</v>
       </c>
       <c r="Q12">
-        <v>0.07275259550521974</v>
+        <v>1.354815864725556</v>
       </c>
       <c r="R12">
-        <v>0.07275259550521974</v>
+        <v>12.19334278253</v>
       </c>
       <c r="S12">
-        <v>8.317597255806786E-05</v>
+        <v>0.001469856691723031</v>
       </c>
       <c r="T12">
-        <v>8.317597255806786E-05</v>
+        <v>0.001826728340887975</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,60 +1213,60 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.287535631195055</v>
+        <v>0.3397296666666667</v>
       </c>
       <c r="H13">
-        <v>0.287535631195055</v>
+        <v>1.019189</v>
       </c>
       <c r="I13">
-        <v>0.02233044291348628</v>
+        <v>0.02604012841917865</v>
       </c>
       <c r="J13">
-        <v>0.02233044291348628</v>
+        <v>0.03051635109608539</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>12.0363866008605</v>
+        <v>54.09996900000001</v>
       </c>
       <c r="N13">
-        <v>12.0363866008605</v>
+        <v>162.299907</v>
       </c>
       <c r="O13">
-        <v>0.1771902647809849</v>
+        <v>0.7657413294677419</v>
       </c>
       <c r="P13">
-        <v>0.1771902647809849</v>
+        <v>0.812066471086124</v>
       </c>
       <c r="Q13">
-        <v>3.460890018586126</v>
+        <v>18.37936443504701</v>
       </c>
       <c r="R13">
-        <v>3.460890018586126</v>
+        <v>165.414279915423</v>
       </c>
       <c r="S13">
-        <v>0.003956737092517303</v>
+        <v>0.01994000255521259</v>
       </c>
       <c r="T13">
-        <v>0.003956737092517303</v>
+        <v>0.02478130554502323</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1275,122 +1275,122 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.316865513441168</v>
+        <v>0.3397296666666667</v>
       </c>
       <c r="H14">
-        <v>0.316865513441168</v>
+        <v>1.019189</v>
       </c>
       <c r="I14">
-        <v>0.02460824500164489</v>
+        <v>0.02604012841917865</v>
       </c>
       <c r="J14">
-        <v>0.02460824500164489</v>
+        <v>0.03051635109608539</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>3.82183324110304</v>
+        <v>0.25851</v>
       </c>
       <c r="N14">
-        <v>3.82183324110304</v>
+        <v>0.7755299999999999</v>
       </c>
       <c r="O14">
-        <v>0.05626203830071427</v>
+        <v>0.003659000083358752</v>
       </c>
       <c r="P14">
-        <v>0.05626203830071427</v>
+        <v>0.003880359033855895</v>
       </c>
       <c r="Q14">
-        <v>1.211007152228638</v>
+        <v>0.08782351613</v>
       </c>
       <c r="R14">
-        <v>1.211007152228638</v>
+        <v>0.7904116451700001</v>
       </c>
       <c r="S14">
-        <v>0.001384510022795906</v>
+        <v>9.528083205644727E-05</v>
       </c>
       <c r="T14">
-        <v>0.001384510022795906</v>
+        <v>0.0001184143986560132</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="B15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.316865513441168</v>
+        <v>0.3397296666666667</v>
       </c>
       <c r="H15">
-        <v>0.316865513441168</v>
+        <v>1.019189</v>
       </c>
       <c r="I15">
-        <v>0.02460824500164489</v>
+        <v>0.02604012841917865</v>
       </c>
       <c r="J15">
-        <v>0.02460824500164489</v>
+        <v>0.03051635109608539</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M15">
-        <v>51.817923265941</v>
+        <v>0.213071</v>
       </c>
       <c r="N15">
-        <v>51.817923265941</v>
+        <v>0.639213</v>
       </c>
       <c r="O15">
-        <v>0.7628229175719926</v>
+        <v>0.003015847768988947</v>
       </c>
       <c r="P15">
-        <v>0.7628229175719926</v>
+        <v>0.003198297859667748</v>
       </c>
       <c r="Q15">
-        <v>16.41931286111744</v>
+        <v>0.07238653980633335</v>
       </c>
       <c r="R15">
-        <v>16.41931286111744</v>
+        <v>0.6514788582570001</v>
       </c>
       <c r="S15">
-        <v>0.01877173324848116</v>
+        <v>7.85330631971656E-05</v>
       </c>
       <c r="T15">
-        <v>0.01877173324848116</v>
+        <v>9.760038039547944E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -1399,55 +1399,55 @@
         <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.316865513441168</v>
+        <v>0.3397296666666667</v>
       </c>
       <c r="H16">
-        <v>0.316865513441168</v>
+        <v>1.019189</v>
       </c>
       <c r="I16">
-        <v>0.02460824500164489</v>
+        <v>0.02604012841917865</v>
       </c>
       <c r="J16">
-        <v>0.02460824500164489</v>
+        <v>0.03051635109608539</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.253021148032491</v>
+        <v>12.090976</v>
       </c>
       <c r="N16">
-        <v>0.253021148032491</v>
+        <v>24.181952</v>
       </c>
       <c r="O16">
-        <v>0.003724779346308193</v>
+        <v>0.1711379915356802</v>
       </c>
       <c r="P16">
-        <v>0.003724779346308193</v>
+        <v>0.1209942309123691</v>
       </c>
       <c r="Q16">
-        <v>0.08017367598278903</v>
+        <v>4.107663246154668</v>
       </c>
       <c r="R16">
-        <v>0.08017367598278903</v>
+        <v>24.64597947692801</v>
       </c>
       <c r="S16">
-        <v>9.166028273101873E-05</v>
+        <v>0.00445645527698942</v>
       </c>
       <c r="T16">
-        <v>9.166028273101873E-05</v>
+        <v>0.003692302431122685</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,60 +1461,60 @@
         <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.316865513441168</v>
+        <v>0.3292183333333333</v>
       </c>
       <c r="H17">
-        <v>0.316865513441168</v>
+        <v>0.9876549999999999</v>
       </c>
       <c r="I17">
-        <v>0.02460824500164489</v>
+        <v>0.02523443937664543</v>
       </c>
       <c r="J17">
-        <v>0.02460824500164489</v>
+        <v>0.02957216643998729</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>12.0363866008605</v>
+        <v>3.987923333333333</v>
       </c>
       <c r="N17">
-        <v>12.0363866008605</v>
+        <v>11.96377</v>
       </c>
       <c r="O17">
-        <v>0.1771902647809849</v>
+        <v>0.05644583114423032</v>
       </c>
       <c r="P17">
-        <v>0.1771902647809849</v>
+        <v>0.05986064110798311</v>
       </c>
       <c r="Q17">
-        <v>3.813915820258057</v>
+        <v>1.312897473261111</v>
       </c>
       <c r="R17">
-        <v>3.813915820258057</v>
+        <v>11.81607725935</v>
       </c>
       <c r="S17">
-        <v>0.004360341447636807</v>
+        <v>0.001424378904073445</v>
       </c>
       <c r="T17">
-        <v>0.004360341447636807</v>
+        <v>0.001770208842049622</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
         <v>25</v>
@@ -1523,60 +1523,60 @@
         <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>5.7406213339089</v>
+        <v>0.3292183333333333</v>
       </c>
       <c r="H18">
-        <v>5.7406213339089</v>
+        <v>0.9876549999999999</v>
       </c>
       <c r="I18">
-        <v>0.4458251537453239</v>
+        <v>0.02523443937664543</v>
       </c>
       <c r="J18">
-        <v>0.4458251537453239</v>
+        <v>0.02957216643998729</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>3.82183324110304</v>
+        <v>54.09996900000001</v>
       </c>
       <c r="N18">
-        <v>3.82183324110304</v>
+        <v>162.299907</v>
       </c>
       <c r="O18">
-        <v>0.05626203830071427</v>
+        <v>0.7657413294677419</v>
       </c>
       <c r="P18">
-        <v>0.05626203830071427</v>
+        <v>0.812066471086124</v>
       </c>
       <c r="Q18">
-        <v>21.93969743851831</v>
+        <v>17.810701627565</v>
       </c>
       <c r="R18">
-        <v>21.93969743851831</v>
+        <v>160.296314648085</v>
       </c>
       <c r="S18">
-        <v>0.02508303187544125</v>
+        <v>0.01932305315664561</v>
       </c>
       <c r="T18">
-        <v>0.02508303187544125</v>
+        <v>0.02401456484329199</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
         <v>25</v>
@@ -1585,60 +1585,60 @@
         <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>5.7406213339089</v>
+        <v>0.3292183333333333</v>
       </c>
       <c r="H19">
-        <v>5.7406213339089</v>
+        <v>0.9876549999999999</v>
       </c>
       <c r="I19">
-        <v>0.4458251537453239</v>
+        <v>0.02523443937664543</v>
       </c>
       <c r="J19">
-        <v>0.4458251537453239</v>
+        <v>0.02957216643998729</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>51.817923265941</v>
+        <v>0.25851</v>
       </c>
       <c r="N19">
-        <v>51.817923265941</v>
+        <v>0.7755299999999999</v>
       </c>
       <c r="O19">
-        <v>0.7628229175719926</v>
+        <v>0.003659000083358752</v>
       </c>
       <c r="P19">
-        <v>0.7628229175719926</v>
+        <v>0.003880359033855895</v>
       </c>
       <c r="Q19">
-        <v>297.4670757793152</v>
+        <v>0.08510623134999999</v>
       </c>
       <c r="R19">
-        <v>297.4670757793152</v>
+        <v>0.7659560821499999</v>
       </c>
       <c r="S19">
-        <v>0.3400856445069902</v>
+        <v>9.233281578265701E-05</v>
       </c>
       <c r="T19">
-        <v>0.3400856445069902</v>
+        <v>0.0001147506231960948</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
         <v>25</v>
@@ -1647,60 +1647,60 @@
         <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>5.7406213339089</v>
+        <v>0.3292183333333333</v>
       </c>
       <c r="H20">
-        <v>5.7406213339089</v>
+        <v>0.9876549999999999</v>
       </c>
       <c r="I20">
-        <v>0.4458251537453239</v>
+        <v>0.02523443937664543</v>
       </c>
       <c r="J20">
-        <v>0.4458251537453239</v>
+        <v>0.02957216643998729</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M20">
-        <v>0.253021148032491</v>
+        <v>0.213071</v>
       </c>
       <c r="N20">
-        <v>0.253021148032491</v>
+        <v>0.639213</v>
       </c>
       <c r="O20">
-        <v>0.003724779346308193</v>
+        <v>0.003015847768988947</v>
       </c>
       <c r="P20">
-        <v>0.003724779346308193</v>
+        <v>0.003198297859667748</v>
       </c>
       <c r="Q20">
-        <v>1.45249860032544</v>
+        <v>0.07014687950166668</v>
       </c>
       <c r="R20">
-        <v>1.45249860032544</v>
+        <v>0.6313219155150001</v>
       </c>
       <c r="S20">
-        <v>0.001660600324735257</v>
+        <v>7.610322769574297E-05</v>
       </c>
       <c r="T20">
-        <v>0.001660600324735257</v>
+        <v>9.458059663074978E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
         <v>25</v>
@@ -1712,52 +1712,362 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>5.7406213339089</v>
+        <v>0.3292183333333333</v>
       </c>
       <c r="H21">
-        <v>5.7406213339089</v>
+        <v>0.9876549999999999</v>
       </c>
       <c r="I21">
-        <v>0.4458251537453239</v>
+        <v>0.02523443937664543</v>
       </c>
       <c r="J21">
-        <v>0.4458251537453239</v>
+        <v>0.02957216643998729</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>12.0363866008605</v>
+        <v>12.090976</v>
       </c>
       <c r="N21">
-        <v>12.0363866008605</v>
+        <v>24.181952</v>
       </c>
       <c r="O21">
-        <v>0.1771902647809849</v>
+        <v>0.1711379915356802</v>
       </c>
       <c r="P21">
-        <v>0.1771902647809849</v>
+        <v>0.1209942309123691</v>
       </c>
       <c r="Q21">
-        <v>69.09633770407501</v>
+        <v>3.980570967093334</v>
       </c>
       <c r="R21">
-        <v>69.09633770407501</v>
+        <v>23.88342580256</v>
       </c>
       <c r="S21">
-        <v>0.07899587703815726</v>
+        <v>0.00431857127244798</v>
       </c>
       <c r="T21">
-        <v>0.07899587703815726</v>
+        <v>0.003578061534818836</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>5.7410415</v>
+      </c>
+      <c r="H22">
+        <v>11.482083</v>
+      </c>
+      <c r="I22">
+        <v>0.4400482871768651</v>
+      </c>
+      <c r="J22">
+        <v>0.3437942090646517</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>3.987923333333333</v>
+      </c>
+      <c r="N22">
+        <v>11.96377</v>
+      </c>
+      <c r="O22">
+        <v>0.05644583114423032</v>
+      </c>
+      <c r="P22">
+        <v>0.05986064110798311</v>
+      </c>
+      <c r="Q22">
+        <v>22.894833355485</v>
+      </c>
+      <c r="R22">
+        <v>137.36900013291</v>
+      </c>
+      <c r="S22">
+        <v>0.0248388913132931</v>
+      </c>
+      <c r="T22">
+        <v>0.02057974176382203</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>5.7410415</v>
+      </c>
+      <c r="H23">
+        <v>11.482083</v>
+      </c>
+      <c r="I23">
+        <v>0.4400482871768651</v>
+      </c>
+      <c r="J23">
+        <v>0.3437942090646517</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>54.09996900000001</v>
+      </c>
+      <c r="N23">
+        <v>162.299907</v>
+      </c>
+      <c r="O23">
+        <v>0.7657413294677419</v>
+      </c>
+      <c r="P23">
+        <v>0.812066471086124</v>
+      </c>
+      <c r="Q23">
+        <v>310.5901671777135</v>
+      </c>
+      <c r="R23">
+        <v>1863.541003066281</v>
+      </c>
+      <c r="S23">
+        <v>0.3369631604528154</v>
+      </c>
+      <c r="T23">
+        <v>0.2791837501349769</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>5.7410415</v>
+      </c>
+      <c r="H24">
+        <v>11.482083</v>
+      </c>
+      <c r="I24">
+        <v>0.4400482871768651</v>
+      </c>
+      <c r="J24">
+        <v>0.3437942090646517</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>0.25851</v>
+      </c>
+      <c r="N24">
+        <v>0.7755299999999999</v>
+      </c>
+      <c r="O24">
+        <v>0.003659000083358752</v>
+      </c>
+      <c r="P24">
+        <v>0.003880359033855895</v>
+      </c>
+      <c r="Q24">
+        <v>1.484116638165</v>
+      </c>
+      <c r="R24">
+        <v>8.904699828989999</v>
+      </c>
+      <c r="S24">
+        <v>0.001610136719462025</v>
+      </c>
+      <c r="T24">
+        <v>0.001334044964931364</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>5.7410415</v>
+      </c>
+      <c r="H25">
+        <v>11.482083</v>
+      </c>
+      <c r="I25">
+        <v>0.4400482871768651</v>
+      </c>
+      <c r="J25">
+        <v>0.3437942090646517</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M25">
+        <v>0.213071</v>
+      </c>
+      <c r="N25">
+        <v>0.639213</v>
+      </c>
+      <c r="O25">
+        <v>0.003015847768988947</v>
+      </c>
+      <c r="P25">
+        <v>0.003198297859667748</v>
+      </c>
+      <c r="Q25">
+        <v>1.2232494534465</v>
+      </c>
+      <c r="R25">
+        <v>7.339496720679</v>
+      </c>
+      <c r="S25">
+        <v>0.001327118645129756</v>
+      </c>
+      <c r="T25">
+        <v>0.001099556283017642</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>5.7410415</v>
+      </c>
+      <c r="H26">
+        <v>11.482083</v>
+      </c>
+      <c r="I26">
+        <v>0.4400482871768651</v>
+      </c>
+      <c r="J26">
+        <v>0.3437942090646517</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>12.090976</v>
+      </c>
+      <c r="N26">
+        <v>24.181952</v>
+      </c>
+      <c r="O26">
+        <v>0.1711379915356802</v>
+      </c>
+      <c r="P26">
+        <v>0.1209942309123691</v>
+      </c>
+      <c r="Q26">
+        <v>69.41479499150401</v>
+      </c>
+      <c r="R26">
+        <v>277.659179966016</v>
+      </c>
+      <c r="S26">
+        <v>0.07530898004616489</v>
+      </c>
+      <c r="T26">
+        <v>0.04159711591790378</v>
       </c>
     </row>
   </sheetData>
